--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl28-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl28-Ackr2.xlsx
@@ -76,10 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ccl28</t>
@@ -522,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,16 +531,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.04711899999999999</v>
+        <v>0.07943533333333333</v>
       </c>
       <c r="H2">
-        <v>0.141357</v>
+        <v>0.238306</v>
       </c>
       <c r="I2">
-        <v>0.3723222963522914</v>
+        <v>0.8002511845635669</v>
       </c>
       <c r="J2">
-        <v>0.3723222963522914</v>
+        <v>0.8002511845635669</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.02576884708466666</v>
+        <v>0.04344228353288889</v>
       </c>
       <c r="R2">
-        <v>0.231919623762</v>
+        <v>0.390980551796</v>
       </c>
       <c r="S2">
-        <v>0.3723222963522914</v>
+        <v>0.8002511845635669</v>
       </c>
       <c r="T2">
-        <v>0.3723222963522914</v>
+        <v>0.8002511845635669</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,7 +584,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -593,16 +593,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07943533333333333</v>
+        <v>0.01982766666666667</v>
       </c>
       <c r="H3">
-        <v>0.238306</v>
+        <v>0.059483</v>
       </c>
       <c r="I3">
-        <v>0.6276777036477087</v>
+        <v>0.1997488154364332</v>
       </c>
       <c r="J3">
-        <v>0.6276777036477087</v>
+        <v>0.1997488154364332</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.04344228353288889</v>
+        <v>0.01084352618644445</v>
       </c>
       <c r="R3">
-        <v>0.390980551796</v>
+        <v>0.097591735678</v>
       </c>
       <c r="S3">
-        <v>0.6276777036477087</v>
+        <v>0.1997488154364332</v>
       </c>
       <c r="T3">
-        <v>0.6276777036477087</v>
+        <v>0.1997488154364332</v>
       </c>
     </row>
   </sheetData>
